--- a/story/主线剧情/main/level_main_08-13_beg.xlsx
+++ b/story/主线剧情/main/level_main_08-13_beg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="731">
   <si>
     <t>zh_CN</t>
   </si>
@@ -22,6 +22,12 @@
     <t>ja_JP</t>
   </si>
   <si>
+    <t>en_US</t>
+  </si>
+  <si>
+    <t>ko_KR</t>
+  </si>
+  <si>
     <t xml:space="preserve">晖洁：
 </t>
   </si>
@@ -1479,6 +1485,1454 @@
   </si>
   <si>
     <t xml:space="preserve">[name="タルラ"]  私はただの……感染者だ。お前たちに期待などされてたまるか！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hui-chieh:
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The snow hasn't melted. And spring hasn't come.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It feels like this next spring is never going to arrive.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Each time I lift my head up to see the candlelight, I just cannot help but to reach my hand out to put it out, only to light it up anew in the darkness.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please go away soon, winter. If you don't go away soon, we'll be buried by all this snow.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please, I beg of you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">February 21st
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected Fighter"]  Talulah, is something wrong?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  ......
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  What?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"]  You've been pretty gloomy the past couple months. Did something happen? 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Nothing... nothing at all.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"]  I haven't spent that much time with everyone here, but going by what I've heard from the others, I got the impression you used to be a bit more... energetic?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"]  Hey, watch it, buddy. Talulah's not often down in the crowd like this. Why don't you try repeating what you just said to the captain and see if he appreciates it?   
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"]  Yeah, can't say I have the balls.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Patriot isn't as scary as it sounds. The Shieldguards are all like this. Don't let it get to you. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  He just hasn't been talking much because of his throat problems lately... and his silence can be intimidating.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  As for how I'm doing... Don't worry.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Yeah... I just have a lot going on in my mind. Our team is getting closer and closer to the Ursus cities. and there's a lot we need to thrash out. I probably gave you that impression because I've been really trying to rack my brain. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"]  Yeah, you're right. We're running low on provisions, and we don't have enough manpower. If this goes on, we aren't going to last much longer.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  That's right, and that's why we need to pay extra attention to what all the outside forces are up to.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  First of all, we need to make contact with the local Infected groups and diaspora as soon as we can.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  And aside from that, there are bound to be people trying to track us down... If we take even one wrong step and fall into their trap, all of us will have end up in a snowy grave.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"]  That doesn't sound good.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Of course it doesn't, but as long as we plan our route carefully, we won't find ourselves in that situation. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  ...So that's why, the most important task we have at hand is to minimize our losses.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Breaking up our teams might conceal our movement better, but then communications will become a problem.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"]  Oh, right, we can't use those comms we took from the Ursus. We don't have their transmitters.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  This will put our liaisons and recon units in unnecessary danger.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  It’s a drain on resources to train someone to use the guerrillas' code words. If we want distribute whole sets of comms to everyone, we'll need to get our hands on the prototype somehow...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Yeti Squad Member"]  Talulah... Talulah! Our recon units were ambushed! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"]  That's nothing. Why do you need her to clean you...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Yeti Squad Member"]  Shut up! This is nothing like what we've faced! Poor bastard fell over before any of us even figured out who the enemy was! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Yeti Squad Member"]  They pinpointed our recon caster and ambushed him with exact precision! We've never seen anything like that from the patrol units...!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Whenever something concerns our teammates, we can't just brush it aside.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Yeti, take me there.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Shieldguard, we might've encountered an Ursus Army platoon. Come with me. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"]  Yes, ma'am!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Remember, even if they are just an advance team, be extra careful. If something goes wrong, we might have a large-scale retaliation waiting for us. We need to avoid that at all costs! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"]  Understood!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Runner, inform Patriot immediately!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Yeti Squad Member"]  Tell FrostNova right away—Ugh! Ah, *cough*...! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"]  Kondrasha!! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"]  You!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"]  Hang in there, Yeti!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Yeti Squad Member"]  Aghh!! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"]  What...? What just happened?! Quick! S-Set him down here! Take that goddamned spear out!   
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"]  (...What's going on? The black spear... grew out of his body?!) 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"]  (No, it can't be... The Empire's monsters?! What are they doing here?!)  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="??? "]  *Hiss*...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"]  Ngh, ugh... Ungh!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"]  What? Think you're all that?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"]  I'll show you what for! Let's go! Get him! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"]  Stop...!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"]  What are you doing? Why are you stopping me?! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"]  You have no idea... You have no idea what you're facing! You don't even know what exactly he is, and you want to get yourself killed?! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"]  What are you so freaked out for?! We've got this many people on our side! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"]  (Smashes shield into the ground)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"]  Ugh?! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"]  Do you want to get yourself killed?! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"]  ...That's...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"]  That's the goddamned Ursus Royal Guard! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Royal Guard?"]  ...To think the Shieldguards have fallen this low.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Royal Guard?"]  Take my advice. Kill yourselves now.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"]  All Shieldguards, back in formation! Protect the other soldiers! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"]  Remember! Don't give him any openings! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Royal Guard?"]  *Hiss*...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Royal Guard?"]  There is fear abound in the air.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Royal Guard?"]  The Infected next to you isn't ready at all.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"]  ...I...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"]  Don't be afraid! The more afraid you are, the more likely he will kill you! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"]  He may attack at any moment! Eyes open! Don't take your eyes off of him for even one second! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Royal Guard?"]  ......
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Royal Guard?"]  Looks like I'm leaving empty-handed again. These three cities need to be cut off from the information net for being completely useless.  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Royal Guard?"]  Infected.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"]  Ugh, ugh...! What are you so smug for?! You...  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Royal Guard?"]  Surrender to the local garrison, or I will slice all your mouths and noses off and bringing them with me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"]  M-Mouths and noses... Isn't that...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"]  ...The Liches... The Facerending Liches! I-I thought that was just a made up fairy tale...?! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"]  You mean... we are looking at them right now?! The Liches that slice faces off of bodies after killing everyone, leaving behind nothing but a bunch of nameless corpses in the forest?!   
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"]  How long have these guys been around...? I first heard the story... T-They could only be Liches!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"]  No, they aren't legends, and they aren't the Demons in the fairy tales! They're murderers and executioners! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"]  How are we even supposed to fight Liches?! We are no match for these guys! We're just people, just normal people!  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Royal Guard?"]  The Infected... called himself normal.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Royal Guard?"]  *Huff*...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"]  ...You... You...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"]  Help... Help me...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"]  Don't run away!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"]  All of you, stay right where you are! You'll die if you run! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"]  He's not even human! How are we supposed— 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"]  I'll kill anyone who runs!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"]  What?! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"]  Like it or not, you're now in the same boat as everyone else. If the defense line falls, everyone will die! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"]  They are nowhere as terrifying as you think. They're still made of flesh and blood! Not even the Royal Guards can take down the Shieldguards' layers of defense without a tough fight...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"]  ...But if you're scared, you will become their breakthrough. They'll start with you when the killing starts!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Royal Guard?"]  We're both among the strongest forces in Ursus, and yet the Shieldguards choose to oppose us and stand with the Infected. How foolish.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Royal Guard?"]  These are truly unfortunate times.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"]  He's unsheathing his blade! Shieldguards, shields up!! Hold!  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"]  ......
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"]  ...He... He's not attacking?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Royal Guard?"]  ...Something is burning. I can smell it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"]  Ahh... My body's starting to warm up...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"]  —Could it be... she's here?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"]  She's here! She's here! Relax, everyone, she's here! Even the Liches are no match for her flames!   
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"]  ...Don't let your guard down! The Royal Guards aren't... 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="??? "]  You wanted to bring whose what back with you now?! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="??? "]  You hurt my people. If you turn to violence, then we will return the favor— 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  With violence—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Royal Guard?"]  I see you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Royal Guard?"]  3, 7, 22, 36. 【Code words】, 【Code words】. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  ...What are the Ursus Royal Guards... doing here?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"]  Talulah... You shouldn't have come. You should've waited for the Captain...! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Royal Guard?"]  You want to know why we are here.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Royal Guard?"]  We are here because we are looking for the duke's daughter. In other words, you. We need to assess the situation. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The sound of the snow falling to the ground is crisp and clear.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  What did you just call me?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Royal Guard?"]  The duke's daughter, and bear this in mind. Given your social standing, surely there are more civilized vocabularies you could use to refer to us. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"]  Huh?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  ...Whose daughter did you just call me?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Royal Guard?"]  You deny the truth, as you are wont to.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  You think I'm the daughter of a snake?! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Royal Guard?"]  Anger... and it stems from your irritation... You want to run away from the truth. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  The "Emperors' Blade"...? *Spit*! You came all the way here today to mock me? Or are you here to kill me?!   
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Royal Guard?"]  *Hiss*.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"]  —Protect Talulah!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"]  (My brothers! The Royal Guards may be fierce, but there's only one of them! We have Talulah leading the charge, and we'll hold the line! With the rest of you supporting us, we'll definitely...) 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"]  (...My Infected brothers?) 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"]  ......
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"]  (The duke's daughter? What is he talking about?) 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  *Hiss*.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  You didn't tell them who you really are.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  Is this part of your plan?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"]  ...Plan...? What plan?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"]  How dare you mock her?! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  You better watch who you are talking to before you try to provoke someone and turn people against her, executioner. My identity has nothing to do with the goal we are working toward here. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  You can only turn one against another if there existed trust between them in the first place. I doubt there is any trust between you and the rest of them. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  I can only surmise... You believe the trust they have for you will remain unscathed even after they come to know who you really are.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  All that coming from a masked villain that carries out covert massacres at the Ursus Empire's behest? I'm afraid no one here needs to be criticized by your kind. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  Your words are strong... and confident.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  If this is as you expected... Very well, I must reassess the situation.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  I bid you goodbye, then. Remember this well. There is one thing we share with the people standing around you. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  We have no trust in you. You must take action to earn even the tiniest trickle of trust. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Stop.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  *Hiss*... You have a question?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  You attacked my people. You know we are here. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  Am I perhaps misunderstanding you?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Who are you trying to rat our secrets out to?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  *Huff*...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  Which secret?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Soldiers, we can't let him give away our location!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"]   (Talulah, are you confident... you can defeat a Royal Guard?) 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  (If we don't do this, we'll face even more losses down the line... We'll have the Patrol Unit and even the Ursus army hunting us down day and night!) 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  (It takes the Royal Guards time to respond to our actions.) 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  (Only if we bring the enemy in front of us under control now will we have the choice between retreating or pressing forward later. If we want to be able to pick, we have to act now!)  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Besides, while we may need to raise our guards against him, we have no reason to fear him. He represents fear, but fear doesn't stand a chance against our anger for our unjust treatment. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"]  —She's right. The guerrillas have no reason to fear the empire's murderers.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"]  How can we still call ourselves the Aegis of the Infected if we just tremble in fear? A lone man is no match for all of us, united! He's just a lone executioner, nothing more!  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  You are mistaken about one thing... I am not here alone.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  There is one more of us behind you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A figure wearing a large overcoat stands solemnly on the path Talulah just took. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Each and every flake of white snow, falling from the gray sky up above, abruptly turns black as it lands on his coat, before disintegrating and scattering across the ground as ashes.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  There's two of them...? 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"]  So what? Just the two of you trying to cut off the dozens of us? Ridiculous!  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  Daughter of Kashchey, allow me to postulate that you've come to the following conclusion: Your peers will not be suspicious of you merely because of your identity.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  Then let us verify the results. If your judgment proves incorrect, then the promise your father made to us shall be considered void. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"]  What is he talking about...?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"]  What are you people daydreaming about?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"]  Snap out of it! They're not just after Talulah! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"]  ...What?! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"]  Do you think these murderers will just let the rest of us go once she's dead?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shieldguard"]  Protect Talulah!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  No... Protect the soldiers!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  First, push them back! After that, secure a way out! Finally, protect yourselves!  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Don't think too hard about it all right now! Just do everything you can to stay alive! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  After all... there is nothing we can do if we aren't alive. If they kill us here, it'll all be over!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Live!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  What you said could not be more different than how your father would see it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="“Emperors' Blade”"]  ...I am afraid you may only prove to be a disappointment, leader of the Northern Tundra Infected.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  I'm not a leader.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  I am just... an Infected. I have no reason to impress you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">훼이지에에게
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">눈은 녹지 않았어. 봄도 오지 않았고.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이번 봄은 아무래도 오지 않을 것 같아.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">고개를 들고 촛불을 볼 때면 나도 모르게 손을 뻗어 불을 껐다가 어둠 속에서 또다시 불을 붙이곤 해.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">겨울이 어서 지나가야 할 텐데. 이대로 겨울이 끝나버리지 않으면, 우리 모두 이 눈에 묻혀버릴지도 몰라.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">어서, 어서 지나가 주길……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2월 21일
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자 전사"]  탈룰라, 무슨 일이야?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  뭐라고?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자"]  요 근래 부쩍 풀이 죽어 보이는데 무슨 일이라도 있던 거야?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  아무것도 아니야, 아무것도……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자"]  너희들과 함께한 지 얼마 안 됐지만 예전의 너는…… 좀 더 활발했다고 하던데.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"]  어깨에서 힘을 뺀 탈룰라는 좀처럼 보기 어렵지. 방금 한 말을 대위님한테 해보는 건 어때, 적당히 말이야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자"]  엄두가 안 나는데.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  패트리어트도 말처럼 그렇게 무서운 분이 아니야. 방패병들은 원래 저러니까 신경 쓸 것 없어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  말을 아끼신 것도 목 상태가 별로 좋지 않아서 그런 것뿐이니까……너희에겐 무언의 압박이 됐을지도 모르겠네.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  내 상태라면…… 걱정하지 마.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  ……그저 생각할 게 많아서 그런 것뿐이니까. 우르수스 도시들에 가까이 접근하다 보니 좀 더 고민해야 할 일들이 많아졌거든. 생각할 게 많아져서 풀이 죽은 것처럼 보였나 보네……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자"]  맞아, 물도 식량도 부족하고 일손도 충분하지 않아, 이런 식으로 가다가는 버틸 수 없을 거야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  맞아, 그래서 외부 세력의 움직임에 좀 더 촉각을 세워야 해.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  현지 감염자 마을과 세력에 최대한 빨리 연락해 볼 생각이야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  우리의 행적을 추적하려는 자들 또한 분명 있을 거야…… 자칫해서 놈들의 덫에 걸렸다간 설원을 영원히 떠나야 할지도 몰라.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자"]  듣기만 해도 끔찍하군.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  그렇겠지. 하지만 앞으로의 계획을 꼼꼼히 세운다면 그런 일은 없을 거야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  ……그러니까 지금으로서는 피해를 줄이는 게 급선무다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  부대를 분산시키면 좀 더 은밀히 움직일 순 있겠지만 대신 통신이 쉽지 않을 거야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자"]  맞아, 빼앗아온 우르수스의 통신 설비를 쓸 수도 없고, 놈들의 송신 설비는 손에 넣을 수 없으니.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  그렇게 되면 아군의 연락책과 정찰대원이 불필요한 위험에 빠지게 될 거야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  유격대의 암호를 배우려면 시간이 너무 오래 걸려. 연락 설비를 모두 갖추려면 우리는 반드시 프로토타입을 손에 넣어야 해……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="눈의 악마 소대원"]  탈룰라…… 탈룰라! 정찰대원이 당했어!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자"]  별거 아니잖아, 그런 건 알아서……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="눈의 악마 소대원"]  시끄러, 지금까지와는 달라! 적을 알아내기도 전에 아군이 쓰러졌단 말이다!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="눈의 악마 소대원"]  정찰대원의 위치를 파악한 후 정확히 공격했어. 이건 보통 감염자 감시팀의 실력이 아니야……!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  전우의 목숨이 달린 일이라면 사소한 것도 지나칠 순 없지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  눈의 악마, 현장으로 안내해.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  방패병, 아무래도 상대는 우르수스 군단 소속의 부대 같아. 날 따라와.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"]  알겠다!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  명심해, 선발대라도 신중히 행동해야 해. 어설프게 처리하면 더 큰 화를 일으킬 수 있으니까. 그런 일이 절대로 일어나선 안 된다!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"]  명심하지!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  통신병, 패트리어트에게 이 소식을 알려라!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="눈의 악마 소대원"]  가서 프로스트노바 누님을 불러…… 윽! 커헉……!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자"]  콘드라샤!!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자"]  너 이 자식!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"]  눈의 악마!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="눈의 악마 소대원"]  윽!!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"]  이, 이건 뭐야……?! 다, 당장 내려놔! 빌어먹을 창을 뽑아야 해!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"]  (……검은색 창이 몸에서…… 자라 나고 있어?!)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"]  (아, 아냐. 그럴 리 없어…… 어떻게, 제국이 키운 괴물이 어떻게 이곳에 있는 거지?!)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  스으으으……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자"]  으, 윽…… 으윽!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자"]  허튼짓하지 마!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자"]  천벌을 받을 놈! 갈기갈기 찢어주마!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"]  안돼……!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자"]  뭐 하는 거야? 왜 막는 건데!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"]  넌 모른다…… 우리가, 우리가 누구를 상대하는지! 그것도 모르면서 개죽음 당하겠다는 거냐?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  스으으으…… 후우우우……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자"]  겁먹은 건가? 아군이 이렇게 많은 데도?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"]  (방패를 땅에 세게 내리친다.)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자"]  윽?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"]  죽고 싶은 거냐?!!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"]  ……저건……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"]  우르수스 황제의 근위병이야!! 우린 다 **된 거라고!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 근위병?"]  ……군단의 방패병마저 타락하다니.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 근위병?"]  더 험한 꼴 당하기 전에 명예롭게 죽을 기회를 주마.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"]  진영을 재정비해라! 다른 전사들을 보호해!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"]  모두 명심해라! 놈에게 한 치의 틈도 내줘선 안 된다!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 근위병?"]  스으으으……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 근위병?"]  공기 속에 공포심이 넘쳐흐르는구나.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 근위병?"]  네 곁의 감염자들은 아직 준비가 안 된 것 같은데.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자"]  ……난……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"]  두려워하지 마라! 놈을 두려워할수록 놈은 더욱 강해진다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"]  놈은 언제든지 공격해 올 수 있다. 눈 크게 뜨고, 놈에게서 시선을 떼지 마라!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 근위병?"]  ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 근위병?"]  또 허탕이로군. 이곳 도시들의 통신망을 몽땅 제거해야겠어. 쓸모없는 것들.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 근위병?"]  감염자.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자"]  으, 으윽……! 뭘 그리 우쭐대는 거냐! 너……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 근위병?"]  현지 주둔군에게 항복해라, 그렇지 않으면 내가 네놈들의 입과 코를 베어 가겠다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자"]  이, 이…… 입과 코를 베다니. 그건……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자"]  ……데몬…… 얼굴을 망가뜨리는 데몬이냐! 소…… 소문이 사실이었어……!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자"]  저 녀석들이 데몬이라고? 사람을 죽이고 얼굴을 베어가서, 이름 없는 시체를 만든다는 그 데몬 말이야?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자"]  대체 얼마나 오래 살길래…… 그 전설대로라면……놈들은…… 놈들은 데몬이 틀림없어!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"]  아니, 놈들은 전설이나 괴담에 나오는 귀신이 아니라 살인자, 학살자일 뿐이야!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자"]  놈들을 어떻게 상대해야 하는 거야? 평범한 인간인 우리가 대체 뭘로 놈들과 싸워야 하냐고!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 근위병?"]  감염자 스스로 사람이라 칭하다니…… 그것도 평범한 사람이라고 말이야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 근위병?"]  후우우…… 허허.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자"]  너…… 너 이 자식!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자"]  사…… 살려……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"]  도망치면 안 돼!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"]  한 명도 도망치면 안 돼! 도망치는 순간, 죽음이다!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자"]  하지만 저, 저건 사람이 아니라고! 우리가 뭘 어떻게……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"]  도망치는 자는 살려두지 않겠다!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자"]  뭐?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"]  너희들의 목숨은 다른 사람들과 하나로 묶여 있다. 방어선이 무너지면 모두 끝장이야!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"]  너희 생각처럼 그리 대단한 놈들이 아냐, 우리와 똑같은 몸뚱아리를 지녔을 뿐이지! 놈들도 방패병으로 세워진 우리 방어선을 쉽게 뚫지는 못할 거다……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"]  ……하지만 너희들이 두려워하기 시작하는 순간, 너희는 놈들의 첫 제물이자, 희생양이 될 거다!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 근위병?"]  똑같은 우르수스의 무장 조직으로, 감염자와 한패가 되어 우리에게 맞서는 쪽을 선택하다니 어리석기 그지없군.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 근위병?"]  정말이지 불행하기 짝이 없는 시대라니까.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"]  녀석이 검을 뽑는다! 방패병, 방패를 들고! 버텨라!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"]  ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 근위병?"]  스으으…… 후우우……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"]  ……공격을…… 하지 않는 건가?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 근위병?"]  ……타는 냄새가 나는군.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자"]  뭐지…… 몸이 따뜻해지고 있어……?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자"]  ……서, 설마, 그녀가 온 건가!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자"]  왔다, 그녀가 왔어! 모두 안심해, 제아무리 데몬이라도 그녀의 불길 앞에서는 한 줌 잿더미가 될 뿐이니까!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"]  ……방심하지 마라! 황제의 근위병은 그렇게……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  누굴, 뭘 어쩌겠다는 거지?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 근위병?"]  후우우우……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  우리의 동료를 네가 해쳤다지? 폭력으로 문제를 해결하겠다면 우리도 똑같이 상대해 주마……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  폭력으로……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 근위병?"]  찾았다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 근위병?"]  3, 7, 22, 36. 【암호】, 【암호】.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  ……우르수스 황제의 근위병이…… 왜 여기에 있는 거지!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"]  탈룰라…… 이렇게 먼저 오면 어쩌잔 거야, 대위님을 먼저 모셔왔어야……!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 근위병?"]  우리가 이곳에 나타난 이유가 궁금하겠지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 근위병?"]  그 이유는 너 때문이다, 공작의 딸. 널 찾고 있었지, 현황을 평가해야 하거든.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">눈송이가 땅에 떨어지는 소리가 또렷하게 들려왔다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  뭐?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 근위병?"]  공작의 딸. 네 신분을 고려해 좀 더 문명화된 이름으로 우릴 불러주기 바란다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자"]  뭐, 뭐야?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  ……누가 누구의 딸이라는 거냐?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 근위병?"]  사실을 터무니없이 부인하려고 하는군.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  내가 어떻게 그 뱀의 딸이라는 거지?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 근위병?"]  분노. 괴로움에서 나오는 분노…… 현실에서 도망치고 싶은 건가?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  ……'황제의 칼날'…… 퉤! 네 녀석은 날 조롱하려고 온 것이냐? 아니면 날 죽이려는 것이냐?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"]  ……탈룰라를 호위해!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"]  (이봐, 모두 잘 들어! 황제의 근위병이 아무리 대단해도 혈혈단신일 뿐이다. 탈룰라가 공격과 지휘를 맡고 우리가 버티고 있으니 제때 지원 나오면 분명히……)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"]  (……어이, 어떻게 된 거야?)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자"]  ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자"]  (공작의 딸이라니 그게 무슨 소리지?)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  스으으으……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  그들에게 네 진짜 정체를 아직 사실대로 알리지 않았나 보군.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  이것도 네 계획인가?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자"]  ……계획이라니?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"]  날 모욕하는 거냐?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  이간질을 하려면 사람 봐 가면서 해라 이 살인마야. 우리 모두의 일과 나의 신분은 아무런 관계가 없어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  이간질이라는 것도 어느 정도 믿음이 있어야지, 저들과의 사이에 믿음이 존재하는지조차 의심스럽군.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  난 그저 궁금할 뿐이야…… 저들이 네 신분을 알게 된 뒤에도 널 계속 믿을 수 있을지 말이야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  우르수스 제국을 위해 보이지 않는 곳에서 살육을 일삼은, 정체불명의 악당을 과연 누가 믿으려 할까?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  말이 거칠군…… 자신감도 넘치는 것 같고.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  만약 지금 상황도 네 계획대로인 거라면…… 현황을 재평가해야 할 것 같군.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  여기서 그만 헤어지도록 하지. 명심해 둬라, 우리와 그들 사이에는 공통점이 있다는 걸.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  나와 네 곁에 있는 사람들 모두 널 믿지 않아. 우리로부터 일말의 신뢰라도 얻으려면 네 행동으로 증명해야 할 거다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  멈춰.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  스으으으…… 질문이라도 있나.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  넌 내 동료를 해쳤다. 우리가 이곳에 있는 것도 알고 있었지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  그래서…… 무슨 말이 하고 싶은 거지?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  돌아가서 누구에게 밀고할 셈인 거냐?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  후우우우……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  밀고라…… 어떤 비밀을 말하는 거지?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  놈이 우리의 위치를 폭로하게 해선 안 돼.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"]   (탈룰라, 너…… 근위병을 이길 자신이 있는 거냐?)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  (안 그러면 우리는 더 큰 피해를 입게 될 테니까 …… 감시팀에다 제국군까지 쳐들어오면 우리만 더 큰 피해를 입게 될 거다!)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  (황제의 근위병도 우리의 행동에 반응하려면 시간이 필요하겠지.)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  (눈앞의 상대를 재빨리 제압해야만 후퇴와 전진 중 하나를 선택할 수 있어. 선택할 때는 꾸물거려선 안 돼!)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  조심해서 나쁠 건 없지만 놈을 두려워할 이유는 없어. 놈은 공포의 대변인일 뿐이야, 불평등에 대한 분노 앞에서 공포는 쉽게 무너지지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"]  ……그래, 유격대는 저 제국의 살인마를 두려워할 이유가 없어!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"]  감염자의 창과 방패가 되어서, 무섭다고 벌벌 떨 면 안 되지. 아무리 대단해도 혼자서는 하나로 똘똘 뭉친 우릴 상대할 수 없다. 놈은 일개 살인자일 뿐이다!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  혼자라…… 그건 아니지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  너희 뒤에 하나 더 있다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">탈룰라가 지나온 길에, 외투를 걸친 '사람' 하나가 우두커니 서 있었다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">잿빛 하늘에서 떨어지던 새하얀 눈송이는 그의 코트에 닿는 순간, 검게 변하더니 산산이 조각난 채 바닥을 더럽혔다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  둘이라고……?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"]  그래서 뭐 어쨌다는 거냐? 고작 둘이서 수십 명의 우리를 막겠다고? 터무니없는 소리!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  카셰이의 딸, 네 신분 때문에 저들이 널 의심하지 않을 거라고 판단하는 건가?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  우리가 그 결과를 입증해 주지. 네 판단이 틀렸다면 네 아버지가 우리에게 했던 약속을 없던 일로 쳐주겠다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자"]  뭐야, 그건……?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"]  대체 무슨 짓을 하려는 거야!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"]  정신 바짝 차려, 놈들이 원하는 건 탈룰라의 목숨만이 아니야!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="감염자"]  ……뭐?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"]  탈룰라가 죽은 뒤에 저놈들의 손에서 너희들이 무사할 것 같아?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="방패병"]  탈룰라를 지켜야 해!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  아니…… 전사들을 지켜라!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  첫째, 놈들을 퇴각시킨다! 둘째, 퇴로를 확보한다! 셋째, 자신을 지킨다!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  이제부터 전진 같은 건 잊어버려! 남은 체력을 유지해 살아남아라!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  ……살아있으면 뭐라도 할 수 있지만, 죽고 나면 아무것도 없다!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  그러니 반드시 살아남아라!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  네 아버지의 이야기와는 전혀 다르군.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="황제의 칼날'"]  ……어쩌면 우리를 실망시킬지도 모르겠어, 북툰드라 감염자의 지휘관.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  난 지휘관 같은 게 아니다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="탈룰라"]  그저…… 감염자일 뿐, 너희의 기대 따윈 필요 없어.
 </t>
   </si>
 </sst>
@@ -1837,1530 +3291,2670 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B190"/>
+  <dimension ref="A1:D190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" t="s">
+        <v>370</v>
+      </c>
+      <c r="D3" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C4" t="s">
+        <v>371</v>
+      </c>
+      <c r="D4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" t="s">
+        <v>372</v>
+      </c>
+      <c r="D5" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C6" t="s">
+        <v>373</v>
+      </c>
+      <c r="D6" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C7" t="s">
+        <v>374</v>
+      </c>
+      <c r="D7" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>375</v>
+      </c>
+      <c r="D8" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C9" t="s">
+        <v>376</v>
+      </c>
+      <c r="D9" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>194</v>
+      </c>
+      <c r="C10" t="s">
+        <v>377</v>
+      </c>
+      <c r="D10" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>195</v>
+      </c>
+      <c r="C11" t="s">
+        <v>378</v>
+      </c>
+      <c r="D11" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>196</v>
+      </c>
+      <c r="C12" t="s">
+        <v>379</v>
+      </c>
+      <c r="D12" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>197</v>
+      </c>
+      <c r="C13" t="s">
+        <v>380</v>
+      </c>
+      <c r="D13" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>198</v>
+      </c>
+      <c r="C14" t="s">
+        <v>381</v>
+      </c>
+      <c r="D14" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>199</v>
+      </c>
+      <c r="C15" t="s">
+        <v>382</v>
+      </c>
+      <c r="D15" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>200</v>
+      </c>
+      <c r="C16" t="s">
+        <v>383</v>
+      </c>
+      <c r="D16" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>201</v>
+      </c>
+      <c r="C17" t="s">
+        <v>384</v>
+      </c>
+      <c r="D17" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>202</v>
+      </c>
+      <c r="C18" t="s">
+        <v>385</v>
+      </c>
+      <c r="D18" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>203</v>
+      </c>
+      <c r="C19" t="s">
+        <v>386</v>
+      </c>
+      <c r="D19" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>204</v>
+      </c>
+      <c r="C20" t="s">
+        <v>387</v>
+      </c>
+      <c r="D20" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>205</v>
+      </c>
+      <c r="C21" t="s">
+        <v>388</v>
+      </c>
+      <c r="D21" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>206</v>
+      </c>
+      <c r="C22" t="s">
+        <v>389</v>
+      </c>
+      <c r="D22" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>207</v>
+      </c>
+      <c r="C23" t="s">
+        <v>390</v>
+      </c>
+      <c r="D23" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>208</v>
+      </c>
+      <c r="C24" t="s">
+        <v>391</v>
+      </c>
+      <c r="D24" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>209</v>
+      </c>
+      <c r="C25" t="s">
+        <v>392</v>
+      </c>
+      <c r="D25" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>210</v>
+      </c>
+      <c r="C26" t="s">
+        <v>393</v>
+      </c>
+      <c r="D26" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>211</v>
+      </c>
+      <c r="C27" t="s">
+        <v>394</v>
+      </c>
+      <c r="D27" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>212</v>
+      </c>
+      <c r="C28" t="s">
+        <v>395</v>
+      </c>
+      <c r="D28" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>213</v>
+      </c>
+      <c r="C29" t="s">
+        <v>396</v>
+      </c>
+      <c r="D29" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
+        <v>214</v>
+      </c>
+      <c r="C30" t="s">
+        <v>397</v>
+      </c>
+      <c r="D30" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>215</v>
+      </c>
+      <c r="C31" t="s">
+        <v>398</v>
+      </c>
+      <c r="D31" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" t="s">
+        <v>216</v>
+      </c>
+      <c r="C32" t="s">
+        <v>399</v>
+      </c>
+      <c r="D32" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" t="s">
+        <v>217</v>
+      </c>
+      <c r="C33" t="s">
+        <v>400</v>
+      </c>
+      <c r="D33" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" t="s">
+        <v>218</v>
+      </c>
+      <c r="C34" t="s">
+        <v>401</v>
+      </c>
+      <c r="D34" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
+        <v>219</v>
+      </c>
+      <c r="C35" t="s">
+        <v>402</v>
+      </c>
+      <c r="D35" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>220</v>
+      </c>
+      <c r="C36" t="s">
+        <v>403</v>
+      </c>
+      <c r="D36" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>221</v>
+      </c>
+      <c r="C37" t="s">
+        <v>404</v>
+      </c>
+      <c r="D37" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" t="s">
+        <v>222</v>
+      </c>
+      <c r="C38" t="s">
+        <v>405</v>
+      </c>
+      <c r="D38" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
+        <v>223</v>
+      </c>
+      <c r="C39" t="s">
+        <v>406</v>
+      </c>
+      <c r="D39" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" t="s">
+        <v>224</v>
+      </c>
+      <c r="C40" t="s">
+        <v>407</v>
+      </c>
+      <c r="D40" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" t="s">
+        <v>225</v>
+      </c>
+      <c r="C41" t="s">
+        <v>408</v>
+      </c>
+      <c r="D41" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" t="s">
+        <v>226</v>
+      </c>
+      <c r="C42" t="s">
+        <v>409</v>
+      </c>
+      <c r="D42" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" t="s">
+        <v>227</v>
+      </c>
+      <c r="C43" t="s">
+        <v>410</v>
+      </c>
+      <c r="D43" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" t="s">
+        <v>228</v>
+      </c>
+      <c r="C44" t="s">
+        <v>411</v>
+      </c>
+      <c r="D44" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" t="s">
+        <v>229</v>
+      </c>
+      <c r="C45" t="s">
+        <v>412</v>
+      </c>
+      <c r="D45" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" t="s">
+        <v>230</v>
+      </c>
+      <c r="C46" t="s">
+        <v>413</v>
+      </c>
+      <c r="D46" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" t="s">
+        <v>231</v>
+      </c>
+      <c r="C47" t="s">
+        <v>414</v>
+      </c>
+      <c r="D47" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" t="s">
+        <v>232</v>
+      </c>
+      <c r="C48" t="s">
+        <v>415</v>
+      </c>
+      <c r="D48" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" t="s">
+        <v>233</v>
+      </c>
+      <c r="C49" t="s">
+        <v>416</v>
+      </c>
+      <c r="D49" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" t="s">
+        <v>234</v>
+      </c>
+      <c r="C50" t="s">
+        <v>417</v>
+      </c>
+      <c r="D50" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" t="s">
+        <v>235</v>
+      </c>
+      <c r="C51" t="s">
+        <v>418</v>
+      </c>
+      <c r="D51" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" t="s">
+        <v>236</v>
+      </c>
+      <c r="C52" t="s">
+        <v>419</v>
+      </c>
+      <c r="D52" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" t="s">
+        <v>237</v>
+      </c>
+      <c r="C53" t="s">
+        <v>420</v>
+      </c>
+      <c r="D53" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" t="s">
+        <v>238</v>
+      </c>
+      <c r="C54" t="s">
+        <v>421</v>
+      </c>
+      <c r="D54" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" t="s">
+        <v>239</v>
+      </c>
+      <c r="C55" t="s">
+        <v>422</v>
+      </c>
+      <c r="D55" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" t="s">
+        <v>240</v>
+      </c>
+      <c r="C56" t="s">
+        <v>423</v>
+      </c>
+      <c r="D56" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" t="s">
+        <v>241</v>
+      </c>
+      <c r="C57" t="s">
+        <v>424</v>
+      </c>
+      <c r="D57" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" t="s">
+        <v>242</v>
+      </c>
+      <c r="C58" t="s">
+        <v>418</v>
+      </c>
+      <c r="D58" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" t="s">
+        <v>243</v>
+      </c>
+      <c r="C59" t="s">
+        <v>425</v>
+      </c>
+      <c r="D59" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60" t="s">
+        <v>244</v>
+      </c>
+      <c r="C60" t="s">
+        <v>426</v>
+      </c>
+      <c r="D60" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61" t="s">
+        <v>245</v>
+      </c>
+      <c r="C61" t="s">
+        <v>427</v>
+      </c>
+      <c r="D61" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>64</v>
+      </c>
+      <c r="B62" t="s">
+        <v>246</v>
+      </c>
+      <c r="C62" t="s">
+        <v>428</v>
+      </c>
+      <c r="D62" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" t="s">
+        <v>247</v>
+      </c>
+      <c r="C63" t="s">
+        <v>429</v>
+      </c>
+      <c r="D63" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64" t="s">
+        <v>248</v>
+      </c>
+      <c r="C64" t="s">
+        <v>430</v>
+      </c>
+      <c r="D64" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65" t="s">
+        <v>249</v>
+      </c>
+      <c r="C65" t="s">
+        <v>431</v>
+      </c>
+      <c r="D65" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66" t="s">
+        <v>250</v>
+      </c>
+      <c r="C66" t="s">
+        <v>432</v>
+      </c>
+      <c r="D66" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67" t="s">
+        <v>251</v>
+      </c>
+      <c r="C67" t="s">
+        <v>433</v>
+      </c>
+      <c r="D67" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68" t="s">
+        <v>252</v>
+      </c>
+      <c r="C68" t="s">
+        <v>434</v>
+      </c>
+      <c r="D68" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69" t="s">
+        <v>253</v>
+      </c>
+      <c r="C69" t="s">
+        <v>435</v>
+      </c>
+      <c r="D69" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70" t="s">
+        <v>254</v>
+      </c>
+      <c r="C70" t="s">
+        <v>436</v>
+      </c>
+      <c r="D70" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71" t="s">
+        <v>255</v>
+      </c>
+      <c r="C71" t="s">
+        <v>437</v>
+      </c>
+      <c r="D71" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72" t="s">
+        <v>256</v>
+      </c>
+      <c r="C72" t="s">
+        <v>438</v>
+      </c>
+      <c r="D72" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73" t="s">
+        <v>257</v>
+      </c>
+      <c r="C73" t="s">
+        <v>439</v>
+      </c>
+      <c r="D73" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>76</v>
+      </c>
+      <c r="B74" t="s">
+        <v>258</v>
+      </c>
+      <c r="C74" t="s">
+        <v>440</v>
+      </c>
+      <c r="D74" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75" t="s">
+        <v>259</v>
+      </c>
+      <c r="C75" t="s">
+        <v>441</v>
+      </c>
+      <c r="D75" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>78</v>
+      </c>
+      <c r="B76" t="s">
+        <v>260</v>
+      </c>
+      <c r="C76" t="s">
+        <v>442</v>
+      </c>
+      <c r="D76" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>79</v>
+      </c>
+      <c r="B77" t="s">
+        <v>261</v>
+      </c>
+      <c r="C77" t="s">
+        <v>443</v>
+      </c>
+      <c r="D77" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>80</v>
+      </c>
+      <c r="B78" t="s">
+        <v>262</v>
+      </c>
+      <c r="C78" t="s">
+        <v>444</v>
+      </c>
+      <c r="D78" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>81</v>
+      </c>
+      <c r="B79" t="s">
+        <v>263</v>
+      </c>
+      <c r="C79" t="s">
+        <v>445</v>
+      </c>
+      <c r="D79" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>82</v>
+      </c>
+      <c r="B80" t="s">
+        <v>264</v>
+      </c>
+      <c r="C80" t="s">
+        <v>446</v>
+      </c>
+      <c r="D80" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>83</v>
+      </c>
+      <c r="B81" t="s">
+        <v>265</v>
+      </c>
+      <c r="C81" t="s">
+        <v>447</v>
+      </c>
+      <c r="D81" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>84</v>
+      </c>
+      <c r="B82" t="s">
+        <v>266</v>
+      </c>
+      <c r="C82" t="s">
+        <v>448</v>
+      </c>
+      <c r="D82" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>85</v>
+      </c>
+      <c r="B83" t="s">
+        <v>267</v>
+      </c>
+      <c r="C83" t="s">
+        <v>449</v>
+      </c>
+      <c r="D83" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>86</v>
+      </c>
+      <c r="B84" t="s">
+        <v>268</v>
+      </c>
+      <c r="C84" t="s">
+        <v>450</v>
+      </c>
+      <c r="D84" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>87</v>
+      </c>
+      <c r="B85" t="s">
+        <v>269</v>
+      </c>
+      <c r="C85" t="s">
+        <v>451</v>
+      </c>
+      <c r="D85" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>88</v>
+      </c>
+      <c r="B86" t="s">
+        <v>270</v>
+      </c>
+      <c r="C86" t="s">
+        <v>452</v>
+      </c>
+      <c r="D86" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>89</v>
+      </c>
+      <c r="B87" t="s">
+        <v>271</v>
+      </c>
+      <c r="C87" t="s">
+        <v>453</v>
+      </c>
+      <c r="D87" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>90</v>
+      </c>
+      <c r="B88" t="s">
+        <v>272</v>
+      </c>
+      <c r="C88" t="s">
+        <v>454</v>
+      </c>
+      <c r="D88" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>91</v>
+      </c>
+      <c r="B89" t="s">
+        <v>273</v>
+      </c>
+      <c r="C89" t="s">
+        <v>455</v>
+      </c>
+      <c r="D89" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>92</v>
+      </c>
+      <c r="B90" t="s">
+        <v>274</v>
+      </c>
+      <c r="C90" t="s">
+        <v>456</v>
+      </c>
+      <c r="D90" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>93</v>
+      </c>
+      <c r="B91" t="s">
+        <v>275</v>
+      </c>
+      <c r="C91" t="s">
+        <v>457</v>
+      </c>
+      <c r="D91" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>94</v>
+      </c>
+      <c r="B92" t="s">
+        <v>276</v>
+      </c>
+      <c r="C92" t="s">
+        <v>458</v>
+      </c>
+      <c r="D92" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>95</v>
+      </c>
+      <c r="B93" t="s">
+        <v>277</v>
+      </c>
+      <c r="C93" t="s">
+        <v>459</v>
+      </c>
+      <c r="D93" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>96</v>
+      </c>
+      <c r="B94" t="s">
+        <v>278</v>
+      </c>
+      <c r="C94" t="s">
+        <v>460</v>
+      </c>
+      <c r="D94" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>97</v>
+      </c>
+      <c r="B95" t="s">
+        <v>279</v>
+      </c>
+      <c r="C95" t="s">
+        <v>461</v>
+      </c>
+      <c r="D95" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>98</v>
+      </c>
+      <c r="B96" t="s">
+        <v>280</v>
+      </c>
+      <c r="C96" t="s">
+        <v>462</v>
+      </c>
+      <c r="D96" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>99</v>
+      </c>
+      <c r="B97" t="s">
+        <v>281</v>
+      </c>
+      <c r="C97" t="s">
+        <v>463</v>
+      </c>
+      <c r="D97" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>100</v>
+      </c>
+      <c r="B98" t="s">
+        <v>282</v>
+      </c>
+      <c r="C98" t="s">
+        <v>464</v>
+      </c>
+      <c r="D98" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>101</v>
+      </c>
+      <c r="B99" t="s">
+        <v>283</v>
+      </c>
+      <c r="C99" t="s">
+        <v>465</v>
+      </c>
+      <c r="D99" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>102</v>
+      </c>
+      <c r="B100" t="s">
+        <v>284</v>
+      </c>
+      <c r="C100" t="s">
+        <v>466</v>
+      </c>
+      <c r="D100" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>77</v>
+      </c>
+      <c r="B101" t="s">
+        <v>259</v>
+      </c>
+      <c r="C101" t="s">
+        <v>441</v>
+      </c>
+      <c r="D101" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>103</v>
+      </c>
+      <c r="B102" t="s">
+        <v>285</v>
+      </c>
+      <c r="C102" t="s">
+        <v>467</v>
+      </c>
+      <c r="D102" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>104</v>
+      </c>
+      <c r="B103" t="s">
+        <v>286</v>
+      </c>
+      <c r="C103" t="s">
+        <v>435</v>
+      </c>
+      <c r="D103" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>105</v>
+      </c>
+      <c r="B104" t="s">
+        <v>287</v>
+      </c>
+      <c r="C104" t="s">
+        <v>468</v>
+      </c>
+      <c r="D104" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>106</v>
+      </c>
+      <c r="B105" t="s">
+        <v>288</v>
+      </c>
+      <c r="C105" t="s">
+        <v>469</v>
+      </c>
+      <c r="D105" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>107</v>
+      </c>
+      <c r="B106" t="s">
+        <v>289</v>
+      </c>
+      <c r="C106" t="s">
+        <v>470</v>
+      </c>
+      <c r="D106" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>108</v>
+      </c>
+      <c r="B107" t="s">
+        <v>290</v>
+      </c>
+      <c r="C107" t="s">
+        <v>471</v>
+      </c>
+      <c r="D107" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>109</v>
+      </c>
+      <c r="B108" t="s">
+        <v>291</v>
+      </c>
+      <c r="C108" t="s">
+        <v>472</v>
+      </c>
+      <c r="D108" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>110</v>
+      </c>
+      <c r="B109" t="s">
+        <v>292</v>
+      </c>
+      <c r="C109" t="s">
+        <v>473</v>
+      </c>
+      <c r="D109" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>111</v>
+      </c>
+      <c r="B110" t="s">
+        <v>293</v>
+      </c>
+      <c r="C110" t="s">
+        <v>474</v>
+      </c>
+      <c r="D110" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>112</v>
+      </c>
+      <c r="B111" t="s">
+        <v>294</v>
+      </c>
+      <c r="C111" t="s">
+        <v>453</v>
+      </c>
+      <c r="D111" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>113</v>
+      </c>
+      <c r="B112" t="s">
+        <v>295</v>
+      </c>
+      <c r="C112" t="s">
+        <v>475</v>
+      </c>
+      <c r="D112" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>114</v>
+      </c>
+      <c r="B113" t="s">
+        <v>296</v>
+      </c>
+      <c r="C113" t="s">
+        <v>476</v>
+      </c>
+      <c r="D113" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>12</v>
+      </c>
+      <c r="B114" t="s">
+        <v>194</v>
+      </c>
+      <c r="C114" t="s">
+        <v>377</v>
+      </c>
+      <c r="D114" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>115</v>
+      </c>
+      <c r="B115" t="s">
+        <v>297</v>
+      </c>
+      <c r="C115" t="s">
+        <v>477</v>
+      </c>
+      <c r="D115" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>116</v>
+      </c>
+      <c r="B116" t="s">
+        <v>298</v>
+      </c>
+      <c r="C116" t="s">
+        <v>478</v>
+      </c>
+      <c r="D116" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>117</v>
+      </c>
+      <c r="B117" t="s">
+        <v>299</v>
+      </c>
+      <c r="C117" t="s">
+        <v>479</v>
+      </c>
+      <c r="D117" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>112</v>
+      </c>
+      <c r="B118" t="s">
+        <v>294</v>
+      </c>
+      <c r="C118" t="s">
+        <v>453</v>
+      </c>
+      <c r="D118" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>300</v>
+      </c>
+      <c r="C119" t="s">
+        <v>480</v>
+      </c>
+      <c r="D119" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>301</v>
+      </c>
+      <c r="C120" t="s">
+        <v>481</v>
+      </c>
+      <c r="D120" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>302</v>
+      </c>
+      <c r="C121" t="s">
+        <v>482</v>
+      </c>
+      <c r="D121" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>303</v>
+      </c>
+      <c r="C122" t="s">
+        <v>483</v>
+      </c>
+      <c r="D122" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>304</v>
+      </c>
+      <c r="C123" t="s">
+        <v>484</v>
+      </c>
+      <c r="D123" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>305</v>
+      </c>
+      <c r="C124" t="s">
+        <v>485</v>
+      </c>
+      <c r="D124" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>306</v>
+      </c>
+      <c r="C125" t="s">
+        <v>486</v>
+      </c>
+      <c r="D125" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>307</v>
+      </c>
+      <c r="C126" t="s">
+        <v>487</v>
+      </c>
+      <c r="D126" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>308</v>
+      </c>
+      <c r="C127" t="s">
+        <v>488</v>
+      </c>
+      <c r="D127" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>309</v>
+      </c>
+      <c r="C128" t="s">
+        <v>489</v>
+      </c>
+      <c r="D128" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>310</v>
+      </c>
+      <c r="C129" t="s">
+        <v>490</v>
+      </c>
+      <c r="D129" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>311</v>
+      </c>
+      <c r="C130" t="s">
+        <v>491</v>
+      </c>
+      <c r="D130" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>253</v>
+      </c>
+      <c r="C131" t="s">
+        <v>492</v>
+      </c>
+      <c r="D131" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>312</v>
+      </c>
+      <c r="C132" t="s">
+        <v>493</v>
+      </c>
+      <c r="D132" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>313</v>
+      </c>
+      <c r="C133" t="s">
+        <v>494</v>
+      </c>
+      <c r="D133" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>314</v>
+      </c>
+      <c r="C134" t="s">
+        <v>495</v>
+      </c>
+      <c r="D134" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>315</v>
+      </c>
+      <c r="C135" t="s">
+        <v>496</v>
+      </c>
+      <c r="D135" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>316</v>
+      </c>
+      <c r="C136" t="s">
+        <v>497</v>
+      </c>
+      <c r="D136" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>317</v>
+      </c>
+      <c r="C137" t="s">
+        <v>498</v>
+      </c>
+      <c r="D137" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>318</v>
+      </c>
+      <c r="C138" t="s">
+        <v>499</v>
+      </c>
+      <c r="D138" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" t="s">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>319</v>
+      </c>
+      <c r="C139" t="s">
+        <v>500</v>
+      </c>
+      <c r="D139" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" t="s">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>320</v>
+      </c>
+      <c r="C140" t="s">
+        <v>501</v>
+      </c>
+      <c r="D140" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" t="s">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>321</v>
+      </c>
+      <c r="C141" t="s">
+        <v>502</v>
+      </c>
+      <c r="D141" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" t="s">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>322</v>
+      </c>
+      <c r="C142" t="s">
+        <v>503</v>
+      </c>
+      <c r="D142" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" t="s">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>323</v>
+      </c>
+      <c r="C143" t="s">
+        <v>504</v>
+      </c>
+      <c r="D143" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" t="s">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>324</v>
+      </c>
+      <c r="C144" t="s">
+        <v>505</v>
+      </c>
+      <c r="D144" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" t="s">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>325</v>
+      </c>
+      <c r="C145" t="s">
+        <v>506</v>
+      </c>
+      <c r="D145" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" t="s">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>326</v>
+      </c>
+      <c r="C146" t="s">
+        <v>507</v>
+      </c>
+      <c r="D146" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" t="s">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>327</v>
+      </c>
+      <c r="C147" t="s">
+        <v>508</v>
+      </c>
+      <c r="D147" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>328</v>
+      </c>
+      <c r="C148" t="s">
+        <v>509</v>
+      </c>
+      <c r="D148" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" t="s">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>329</v>
+      </c>
+      <c r="C149" t="s">
+        <v>510</v>
+      </c>
+      <c r="D149" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="s">
+        <v>12</v>
+      </c>
+      <c r="B150" t="s">
+        <v>194</v>
+      </c>
+      <c r="C150" t="s">
+        <v>377</v>
+      </c>
+      <c r="D150" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" t="s">
+        <v>149</v>
+      </c>
+      <c r="B151" t="s">
+        <v>330</v>
+      </c>
+      <c r="C151" t="s">
+        <v>511</v>
+      </c>
+      <c r="D151" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" t="s">
+        <v>150</v>
+      </c>
+      <c r="B152" t="s">
+        <v>331</v>
+      </c>
+      <c r="C152" t="s">
+        <v>512</v>
+      </c>
+      <c r="D152" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" t="s">
+        <v>151</v>
+      </c>
+      <c r="B153" t="s">
+        <v>332</v>
+      </c>
+      <c r="C153" t="s">
+        <v>513</v>
+      </c>
+      <c r="D153" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" t="s">
+        <v>152</v>
+      </c>
+      <c r="B154" t="s">
+        <v>333</v>
+      </c>
+      <c r="C154" t="s">
+        <v>514</v>
+      </c>
+      <c r="D154" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" t="s">
+        <v>153</v>
+      </c>
+      <c r="B155" t="s">
+        <v>334</v>
+      </c>
+      <c r="C155" t="s">
+        <v>515</v>
+      </c>
+      <c r="D155" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" t="s">
+        <v>154</v>
+      </c>
+      <c r="B156" t="s">
+        <v>335</v>
+      </c>
+      <c r="C156" t="s">
+        <v>516</v>
+      </c>
+      <c r="D156" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" t="s">
+        <v>155</v>
+      </c>
+      <c r="B157" t="s">
+        <v>336</v>
+      </c>
+      <c r="C157" t="s">
+        <v>517</v>
+      </c>
+      <c r="D157" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" t="s">
+        <v>156</v>
+      </c>
+      <c r="B158" t="s">
+        <v>337</v>
+      </c>
+      <c r="C158" t="s">
+        <v>518</v>
+      </c>
+      <c r="D158" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" t="s">
+        <v>157</v>
+      </c>
+      <c r="B159" t="s">
+        <v>338</v>
+      </c>
+      <c r="C159" t="s">
+        <v>519</v>
+      </c>
+      <c r="D159" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" t="s">
+        <v>158</v>
+      </c>
+      <c r="B160" t="s">
+        <v>339</v>
+      </c>
+      <c r="C160" t="s">
+        <v>520</v>
+      </c>
+      <c r="D160" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" t="s">
+        <v>159</v>
+      </c>
+      <c r="B161" t="s">
+        <v>340</v>
+      </c>
+      <c r="C161" t="s">
+        <v>521</v>
+      </c>
+      <c r="D161" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" t="s">
+        <v>160</v>
+      </c>
+      <c r="B162" t="s">
+        <v>341</v>
+      </c>
+      <c r="C162" t="s">
+        <v>522</v>
+      </c>
+      <c r="D162" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" t="s">
+        <v>161</v>
+      </c>
+      <c r="B163" t="s">
+        <v>342</v>
+      </c>
+      <c r="C163" t="s">
+        <v>523</v>
+      </c>
+      <c r="D163" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" t="s">
+        <v>162</v>
+      </c>
+      <c r="B164" t="s">
+        <v>343</v>
+      </c>
+      <c r="C164" t="s">
+        <v>524</v>
+      </c>
+      <c r="D164" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" t="s">
+        <v>163</v>
+      </c>
+      <c r="B165" t="s">
+        <v>344</v>
+      </c>
+      <c r="C165" t="s">
+        <v>525</v>
+      </c>
+      <c r="D165" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" t="s">
+        <v>164</v>
+      </c>
+      <c r="B166" t="s">
+        <v>345</v>
+      </c>
+      <c r="C166" t="s">
+        <v>526</v>
+      </c>
+      <c r="D166" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" t="s">
+        <v>165</v>
+      </c>
+      <c r="B167" t="s">
+        <v>346</v>
+      </c>
+      <c r="C167" t="s">
+        <v>527</v>
+      </c>
+      <c r="D167" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" t="s">
+        <v>103</v>
+      </c>
+      <c r="B168" t="s">
+        <v>347</v>
+      </c>
+      <c r="C168" t="s">
+        <v>467</v>
+      </c>
+      <c r="D168" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" t="s">
+        <v>166</v>
+      </c>
+      <c r="B169" t="s">
+        <v>348</v>
+      </c>
+      <c r="C169" t="s">
+        <v>528</v>
+      </c>
+      <c r="D169" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" t="s">
+        <v>167</v>
+      </c>
+      <c r="B170" t="s">
+        <v>349</v>
+      </c>
+      <c r="C170" t="s">
+        <v>529</v>
+      </c>
+      <c r="D170" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" t="s">
+        <v>168</v>
+      </c>
+      <c r="B171" t="s">
+        <v>350</v>
+      </c>
+      <c r="C171" t="s">
+        <v>530</v>
+      </c>
+      <c r="D171" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" t="s">
+        <v>169</v>
+      </c>
+      <c r="B172" t="s">
+        <v>351</v>
+      </c>
+      <c r="C172" t="s">
+        <v>531</v>
+      </c>
+      <c r="D172" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" t="s">
+        <v>170</v>
+      </c>
+      <c r="B173" t="s">
+        <v>352</v>
+      </c>
+      <c r="C173" t="s">
+        <v>532</v>
+      </c>
+      <c r="D173" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" t="s">
+        <v>171</v>
+      </c>
+      <c r="B174" t="s">
+        <v>353</v>
+      </c>
+      <c r="C174" t="s">
+        <v>533</v>
+      </c>
+      <c r="D174" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" t="s">
+        <v>172</v>
+      </c>
+      <c r="B175" t="s">
+        <v>354</v>
+      </c>
+      <c r="C175" t="s">
+        <v>534</v>
+      </c>
+      <c r="D175" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" t="s">
+        <v>103</v>
+      </c>
+      <c r="B176" t="s">
+        <v>285</v>
+      </c>
+      <c r="C176" t="s">
+        <v>467</v>
+      </c>
+      <c r="D176" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" t="s">
+        <v>173</v>
+      </c>
+      <c r="B177" t="s">
+        <v>355</v>
+      </c>
+      <c r="C177" t="s">
+        <v>535</v>
+      </c>
+      <c r="D177" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" t="s">
+        <v>174</v>
+      </c>
+      <c r="B178" t="s">
+        <v>356</v>
+      </c>
+      <c r="C178" t="s">
+        <v>536</v>
+      </c>
+      <c r="D178" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" t="s">
+        <v>175</v>
+      </c>
+      <c r="B179" t="s">
+        <v>357</v>
+      </c>
+      <c r="C179" t="s">
+        <v>537</v>
+      </c>
+      <c r="D179" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" t="s">
+        <v>176</v>
+      </c>
+      <c r="B180" t="s">
+        <v>358</v>
+      </c>
+      <c r="C180" t="s">
+        <v>538</v>
+      </c>
+      <c r="D180" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" t="s">
+        <v>177</v>
+      </c>
+      <c r="B181" t="s">
+        <v>359</v>
+      </c>
+      <c r="C181" t="s">
+        <v>539</v>
+      </c>
+      <c r="D181" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" t="s">
+        <v>178</v>
+      </c>
+      <c r="B182" t="s">
+        <v>360</v>
+      </c>
+      <c r="C182" t="s">
+        <v>540</v>
+      </c>
+      <c r="D182" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" t="s">
+        <v>179</v>
+      </c>
+      <c r="B183" t="s">
+        <v>361</v>
+      </c>
+      <c r="C183" t="s">
+        <v>541</v>
+      </c>
+      <c r="D183" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" t="s">
+        <v>180</v>
+      </c>
+      <c r="B184" t="s">
+        <v>362</v>
+      </c>
+      <c r="C184" t="s">
+        <v>542</v>
+      </c>
+      <c r="D184" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" t="s">
+        <v>181</v>
+      </c>
+      <c r="B185" t="s">
+        <v>363</v>
+      </c>
+      <c r="C185" t="s">
+        <v>543</v>
+      </c>
+      <c r="D185" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" t="s">
+        <v>182</v>
+      </c>
+      <c r="B186" t="s">
+        <v>364</v>
+      </c>
+      <c r="C186" t="s">
+        <v>544</v>
+      </c>
+      <c r="D186" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" t="s">
+        <v>183</v>
+      </c>
+      <c r="B187" t="s">
+        <v>365</v>
+      </c>
+      <c r="C187" t="s">
+        <v>545</v>
+      </c>
+      <c r="D187" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" t="s">
+        <v>184</v>
+      </c>
+      <c r="B188" t="s">
+        <v>366</v>
+      </c>
+      <c r="C188" t="s">
+        <v>546</v>
+      </c>
+      <c r="D188" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B189" t="s">
+        <v>367</v>
+      </c>
+      <c r="C189" t="s">
+        <v>547</v>
+      </c>
+      <c r="D189" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
-        <v>52</v>
-      </c>
-      <c r="B52" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>53</v>
-      </c>
-      <c r="B53" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
-        <v>54</v>
-      </c>
-      <c r="B54" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
-        <v>55</v>
-      </c>
-      <c r="B55" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
-        <v>56</v>
-      </c>
-      <c r="B56" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
-        <v>57</v>
-      </c>
-      <c r="B57" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="s">
-        <v>58</v>
-      </c>
-      <c r="B58" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
-        <v>59</v>
-      </c>
-      <c r="B59" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="s">
-        <v>60</v>
-      </c>
-      <c r="B60" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="s">
-        <v>61</v>
-      </c>
-      <c r="B61" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="s">
-        <v>62</v>
-      </c>
-      <c r="B62" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="s">
-        <v>63</v>
-      </c>
-      <c r="B63" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" t="s">
-        <v>64</v>
-      </c>
-      <c r="B64" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
-        <v>65</v>
-      </c>
-      <c r="B65" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
-        <v>66</v>
-      </c>
-      <c r="B66" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
-        <v>67</v>
-      </c>
-      <c r="B67" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
-        <v>68</v>
-      </c>
-      <c r="B68" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="s">
-        <v>69</v>
-      </c>
-      <c r="B69" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="s">
-        <v>70</v>
-      </c>
-      <c r="B70" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" t="s">
-        <v>71</v>
-      </c>
-      <c r="B71" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" t="s">
-        <v>72</v>
-      </c>
-      <c r="B72" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" t="s">
-        <v>73</v>
-      </c>
-      <c r="B73" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
-        <v>74</v>
-      </c>
-      <c r="B74" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" t="s">
-        <v>75</v>
-      </c>
-      <c r="B75" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" t="s">
-        <v>76</v>
-      </c>
-      <c r="B76" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" t="s">
-        <v>77</v>
-      </c>
-      <c r="B77" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" t="s">
-        <v>78</v>
-      </c>
-      <c r="B78" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" t="s">
-        <v>79</v>
-      </c>
-      <c r="B79" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" t="s">
-        <v>80</v>
-      </c>
-      <c r="B80" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" t="s">
-        <v>81</v>
-      </c>
-      <c r="B81" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" t="s">
-        <v>82</v>
-      </c>
-      <c r="B82" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" t="s">
-        <v>83</v>
-      </c>
-      <c r="B83" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" t="s">
-        <v>84</v>
-      </c>
-      <c r="B84" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" t="s">
-        <v>85</v>
-      </c>
-      <c r="B85" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" t="s">
-        <v>86</v>
-      </c>
-      <c r="B86" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" t="s">
-        <v>87</v>
-      </c>
-      <c r="B87" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" t="s">
-        <v>88</v>
-      </c>
-      <c r="B88" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" t="s">
-        <v>89</v>
-      </c>
-      <c r="B89" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" t="s">
-        <v>90</v>
-      </c>
-      <c r="B90" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" t="s">
-        <v>91</v>
-      </c>
-      <c r="B91" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" t="s">
-        <v>92</v>
-      </c>
-      <c r="B92" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" t="s">
-        <v>93</v>
-      </c>
-      <c r="B93" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" t="s">
-        <v>94</v>
-      </c>
-      <c r="B94" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" t="s">
-        <v>95</v>
-      </c>
-      <c r="B95" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" t="s">
-        <v>96</v>
-      </c>
-      <c r="B96" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" t="s">
-        <v>97</v>
-      </c>
-      <c r="B97" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" t="s">
-        <v>98</v>
-      </c>
-      <c r="B98" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" t="s">
-        <v>99</v>
-      </c>
-      <c r="B99" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" t="s">
-        <v>100</v>
-      </c>
-      <c r="B100" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" t="s">
-        <v>75</v>
-      </c>
-      <c r="B101" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" t="s">
-        <v>101</v>
-      </c>
-      <c r="B102" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" t="s">
-        <v>102</v>
-      </c>
-      <c r="B103" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" t="s">
-        <v>103</v>
-      </c>
-      <c r="B104" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" t="s">
-        <v>104</v>
-      </c>
-      <c r="B105" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" t="s">
-        <v>105</v>
-      </c>
-      <c r="B106" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" t="s">
-        <v>106</v>
-      </c>
-      <c r="B107" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" t="s">
-        <v>107</v>
-      </c>
-      <c r="B108" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" t="s">
-        <v>108</v>
-      </c>
-      <c r="B109" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" t="s">
-        <v>109</v>
-      </c>
-      <c r="B110" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" t="s">
-        <v>110</v>
-      </c>
-      <c r="B111" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" t="s">
-        <v>111</v>
-      </c>
-      <c r="B112" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" t="s">
-        <v>112</v>
-      </c>
-      <c r="B113" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" t="s">
-        <v>10</v>
-      </c>
-      <c r="B114" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" t="s">
-        <v>113</v>
-      </c>
-      <c r="B115" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="A116" t="s">
-        <v>114</v>
-      </c>
-      <c r="B116" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" t="s">
-        <v>115</v>
-      </c>
-      <c r="B117" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
-      <c r="A118" t="s">
-        <v>110</v>
-      </c>
-      <c r="B118" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" t="s">
-        <v>116</v>
-      </c>
-      <c r="B119" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120" t="s">
-        <v>117</v>
-      </c>
-      <c r="B120" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
-      <c r="A121" t="s">
-        <v>118</v>
-      </c>
-      <c r="B121" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" t="s">
-        <v>119</v>
-      </c>
-      <c r="B122" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
-      <c r="A123" t="s">
-        <v>120</v>
-      </c>
-      <c r="B123" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="A124" t="s">
-        <v>121</v>
-      </c>
-      <c r="B124" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125" t="s">
-        <v>122</v>
-      </c>
-      <c r="B125" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" t="s">
-        <v>123</v>
-      </c>
-      <c r="B126" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="A127" t="s">
-        <v>124</v>
-      </c>
-      <c r="B127" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
-      <c r="A128" t="s">
-        <v>125</v>
-      </c>
-      <c r="B128" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
-      <c r="A129" t="s">
-        <v>126</v>
-      </c>
-      <c r="B129" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130" t="s">
-        <v>127</v>
-      </c>
-      <c r="B130" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="A131" t="s">
-        <v>128</v>
-      </c>
-      <c r="B131" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
-      <c r="A132" t="s">
-        <v>129</v>
-      </c>
-      <c r="B132" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
-      <c r="A133" t="s">
-        <v>130</v>
-      </c>
-      <c r="B133" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
-      <c r="A134" t="s">
-        <v>131</v>
-      </c>
-      <c r="B134" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
-      <c r="A135" t="s">
-        <v>132</v>
-      </c>
-      <c r="B135" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
-      <c r="A136" t="s">
-        <v>133</v>
-      </c>
-      <c r="B136" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
-      <c r="A137" t="s">
-        <v>134</v>
-      </c>
-      <c r="B137" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
-      <c r="A138" t="s">
-        <v>135</v>
-      </c>
-      <c r="B138" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
-      <c r="A139" t="s">
-        <v>136</v>
-      </c>
-      <c r="B139" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
-      <c r="A140" t="s">
-        <v>137</v>
-      </c>
-      <c r="B140" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
-      <c r="A141" t="s">
-        <v>138</v>
-      </c>
-      <c r="B141" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
-      <c r="A142" t="s">
-        <v>139</v>
-      </c>
-      <c r="B142" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2">
-      <c r="A143" t="s">
-        <v>140</v>
-      </c>
-      <c r="B143" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
-      <c r="A144" t="s">
-        <v>141</v>
-      </c>
-      <c r="B144" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2">
-      <c r="A145" t="s">
-        <v>142</v>
-      </c>
-      <c r="B145" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2">
-      <c r="A146" t="s">
-        <v>143</v>
-      </c>
-      <c r="B146" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
-      <c r="A147" t="s">
-        <v>144</v>
-      </c>
-      <c r="B147" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2">
-      <c r="A148" t="s">
-        <v>145</v>
-      </c>
-      <c r="B148" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2">
-      <c r="A149" t="s">
-        <v>146</v>
-      </c>
-      <c r="B149" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2">
-      <c r="A150" t="s">
-        <v>10</v>
-      </c>
-      <c r="B150" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
-      <c r="A151" t="s">
-        <v>147</v>
-      </c>
-      <c r="B151" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
-      <c r="A152" t="s">
-        <v>148</v>
-      </c>
-      <c r="B152" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2">
-      <c r="A153" t="s">
-        <v>149</v>
-      </c>
-      <c r="B153" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2">
-      <c r="A154" t="s">
-        <v>150</v>
-      </c>
-      <c r="B154" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2">
-      <c r="A155" t="s">
-        <v>151</v>
-      </c>
-      <c r="B155" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2">
-      <c r="A156" t="s">
-        <v>152</v>
-      </c>
-      <c r="B156" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2">
-      <c r="A157" t="s">
-        <v>153</v>
-      </c>
-      <c r="B157" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2">
-      <c r="A158" t="s">
-        <v>154</v>
-      </c>
-      <c r="B158" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2">
-      <c r="A159" t="s">
-        <v>155</v>
-      </c>
-      <c r="B159" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2">
-      <c r="A160" t="s">
-        <v>156</v>
-      </c>
-      <c r="B160" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2">
-      <c r="A161" t="s">
-        <v>157</v>
-      </c>
-      <c r="B161" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2">
-      <c r="A162" t="s">
-        <v>158</v>
-      </c>
-      <c r="B162" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2">
-      <c r="A163" t="s">
-        <v>159</v>
-      </c>
-      <c r="B163" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2">
-      <c r="A164" t="s">
-        <v>160</v>
-      </c>
-      <c r="B164" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2">
-      <c r="A165" t="s">
-        <v>161</v>
-      </c>
-      <c r="B165" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2">
-      <c r="A166" t="s">
-        <v>162</v>
-      </c>
-      <c r="B166" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2">
-      <c r="A167" t="s">
-        <v>163</v>
-      </c>
-      <c r="B167" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2">
-      <c r="A168" t="s">
-        <v>101</v>
-      </c>
-      <c r="B168" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2">
-      <c r="A169" t="s">
-        <v>164</v>
-      </c>
-      <c r="B169" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2">
-      <c r="A170" t="s">
-        <v>165</v>
-      </c>
-      <c r="B170" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2">
-      <c r="A171" t="s">
-        <v>166</v>
-      </c>
-      <c r="B171" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2">
-      <c r="A172" t="s">
-        <v>167</v>
-      </c>
-      <c r="B172" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2">
-      <c r="A173" t="s">
-        <v>168</v>
-      </c>
-      <c r="B173" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2">
-      <c r="A174" t="s">
-        <v>169</v>
-      </c>
-      <c r="B174" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2">
-      <c r="A175" t="s">
-        <v>170</v>
-      </c>
-      <c r="B175" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2">
-      <c r="A176" t="s">
-        <v>101</v>
-      </c>
-      <c r="B176" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2">
-      <c r="A177" t="s">
-        <v>171</v>
-      </c>
-      <c r="B177" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2">
-      <c r="A178" t="s">
-        <v>172</v>
-      </c>
-      <c r="B178" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2">
-      <c r="A179" t="s">
-        <v>173</v>
-      </c>
-      <c r="B179" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2">
-      <c r="A180" t="s">
-        <v>174</v>
-      </c>
-      <c r="B180" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2">
-      <c r="A181" t="s">
-        <v>175</v>
-      </c>
-      <c r="B181" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2">
-      <c r="A182" t="s">
-        <v>176</v>
-      </c>
-      <c r="B182" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2">
-      <c r="A183" t="s">
-        <v>177</v>
-      </c>
-      <c r="B183" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2">
-      <c r="A184" t="s">
-        <v>178</v>
-      </c>
-      <c r="B184" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2">
-      <c r="A185" t="s">
-        <v>179</v>
-      </c>
-      <c r="B185" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2">
-      <c r="A186" t="s">
-        <v>180</v>
-      </c>
-      <c r="B186" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2">
-      <c r="A187" t="s">
-        <v>181</v>
-      </c>
-      <c r="B187" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2">
-      <c r="A188" t="s">
-        <v>182</v>
-      </c>
-      <c r="B188" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2">
-      <c r="A189" t="s">
-        <v>183</v>
-      </c>
-      <c r="B189" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2">
-      <c r="A190" t="s">
-        <v>184</v>
-      </c>
       <c r="B190" t="s">
-        <v>366</v>
+        <v>368</v>
+      </c>
+      <c r="C190" t="s">
+        <v>548</v>
+      </c>
+      <c r="D190" t="s">
+        <v>730</v>
       </c>
     </row>
   </sheetData>
